--- a/data/trans_bre/P26-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P26-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.16190287873412</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9912320066768552</v>
+        <v>0.9912320066768537</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.264930947159867</v>
@@ -649,7 +649,7 @@
         <v>0.2213073769477399</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1087278283639317</v>
+        <v>0.1087278283639316</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.741282719831734</v>
+        <v>-0.8030053241552256</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.155762843968379</v>
+        <v>-4.112809955688031</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.52375114833176</v>
+        <v>-2.41261164821935</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.986623267570341</v>
+        <v>-2.774404953368276</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.0307441543372255</v>
+        <v>-0.03231837923926999</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1587033299250688</v>
+        <v>-0.120178672077463</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1193519668135381</v>
+        <v>-0.1124367780007254</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2728093212170311</v>
+        <v>-0.2568704931601629</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.48696853005985</v>
+        <v>12.2690283510512</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.41629509102737</v>
+        <v>11.44900227026033</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.65719497665963</v>
+        <v>9.925604513732829</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.803076861712925</v>
+        <v>4.884804569910554</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6636097850667051</v>
+        <v>0.6498411719343458</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3891522968683639</v>
+        <v>0.4553543460960162</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6694681134179992</v>
+        <v>0.6070178352554232</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6186894867533442</v>
+        <v>0.7100702030594049</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.17508726306309</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.699100193144108</v>
+        <v>4.699100193144109</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5851179388273858</v>
@@ -749,7 +749,7 @@
         <v>0.1581040056194608</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.585513869571787</v>
+        <v>0.5855138695717872</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.560010832304119</v>
+        <v>6.281495670105529</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.112466158202426</v>
+        <v>-1.994087256518191</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.939180828178484</v>
+        <v>-2.789690611660238</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4819691559407067</v>
+        <v>0.02632558773164664</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2445027038685887</v>
+        <v>0.2427698358049716</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07258734988133216</v>
+        <v>-0.06508389275250025</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1316968616034304</v>
+        <v>-0.1200559133895233</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02869283766980576</v>
+        <v>-0.01596418383452925</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>20.83722532907854</v>
+        <v>20.61132672317084</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.24945946001038</v>
+        <v>12.94471096404975</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.08537665441423</v>
+        <v>10.01398248592927</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.971566073495218</v>
+        <v>8.674585240897155</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.110174959545943</v>
+        <v>1.08009592739821</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.53211503661893</v>
+        <v>0.5651947251206907</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5877987099715668</v>
+        <v>0.579328572347468</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.539922127238141</v>
+        <v>1.445708725885331</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.014336910441162</v>
+        <v>6.019910564451062</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.811956861892641</v>
+        <v>1.917396314497812</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.78657249615203</v>
+        <v>-12.05710074385409</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.562682755761148</v>
+        <v>-4.544500017712223</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2319467764689546</v>
+        <v>0.1879102450781906</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.079513282058122</v>
+        <v>0.04974264805720908</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4341082747680919</v>
+        <v>-0.4339677273362444</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4389506675329689</v>
+        <v>-0.43916514271838</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.02818535654119</v>
+        <v>23.84106114651249</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.57666586645468</v>
+        <v>17.65620082122741</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.868030125649349</v>
+        <v>3.906214983021662</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.608065246497897</v>
+        <v>4.790828609335792</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9090342858342907</v>
+        <v>0.9155042023934042</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5691632834145753</v>
+        <v>0.5621482888713121</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2027241241565803</v>
+        <v>0.1652114773865622</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6626137916741165</v>
+        <v>0.7191070600781213</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.040241850678088</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.550867795726288</v>
+        <v>4.550867795726285</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4971082332633777</v>
@@ -949,7 +949,7 @@
         <v>0.1127509925898431</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3470673814371099</v>
+        <v>0.3470673814371096</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>9.288432226275916</v>
+        <v>9.542783839391753</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.50704930564944</v>
+        <v>3.594908120455084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.8408554649365222</v>
+        <v>-1.262824248119711</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7856266209412269</v>
+        <v>0.9966594728179182</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3196349434145007</v>
+        <v>0.3203047319268451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09323996395438401</v>
+        <v>0.1039750217161897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02898288113271218</v>
+        <v>-0.0452613103823624</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.05325333360725192</v>
+        <v>0.06376630909131072</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.50077228685886</v>
+        <v>18.82464438676936</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.29422350910959</v>
+        <v>13.4965435401617</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.724983709070758</v>
+        <v>7.290051640875629</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.292580739394088</v>
+        <v>7.922793186590295</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7104989123503239</v>
+        <v>0.721725062314135</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4148972323248042</v>
+        <v>0.4204294948728735</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3059641131947003</v>
+        <v>0.288238532524484</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7429500107068625</v>
+        <v>0.7125027471173621</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.120794305513338</v>
+        <v>4.671767196562445</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.856016279157891</v>
+        <v>2.780873172919366</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.034507089801011</v>
+        <v>1.134397725204004</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.251220315737773</v>
+        <v>-3.252315859403913</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1446546221407965</v>
+        <v>0.128935052849576</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04981073200856074</v>
+        <v>0.07183896028797063</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03115169385981356</v>
+        <v>0.04200946136505073</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1915154711247849</v>
+        <v>-0.1847667967578843</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.93915490962565</v>
+        <v>18.33765844715418</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.74503788778659</v>
+        <v>14.20308663709802</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.41551529077802</v>
+        <v>11.80643112380508</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.296580085475216</v>
+        <v>5.40286987344277</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6876155938744947</v>
+        <v>0.6646528322779186</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.454868798892564</v>
+        <v>0.4878302966134802</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5244185005234899</v>
+        <v>0.5366991453515925</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.46368285044779</v>
+        <v>0.5048388165907489</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-9.966652005384077</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-2.78939240844081</v>
+        <v>-2.789392408440812</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.2760127060049661</v>
@@ -1149,7 +1149,7 @@
         <v>-0.2863894560935719</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1947284210196814</v>
+        <v>-0.1947284210196815</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-18.96769302377415</v>
+        <v>-18.55892713502941</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-12.4052343234778</v>
+        <v>-11.84955792288986</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-16.4574159048449</v>
+        <v>-16.36403953943031</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-11.32480819851131</v>
+        <v>-12.40005915116812</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3793232939894341</v>
+        <v>-0.3769787316644588</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2537471842343916</v>
+        <v>-0.2459768369791441</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4133568288519818</v>
+        <v>-0.4091193858258089</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5198794723190794</v>
+        <v>-0.5170553097367895</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-6.319506002179106</v>
+        <v>-6.242040183449834</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.431422388125701</v>
+        <v>1.782185787425943</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-3.728611107496762</v>
+        <v>-3.25924150414987</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.939740793855996</v>
+        <v>3.967229122654888</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1570840297823031</v>
+        <v>-0.1550379421804666</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03713769092304937</v>
+        <v>0.05070674806497789</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1266523228538289</v>
+        <v>-0.1148708018628473</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4374490424004684</v>
+        <v>0.4753847879798704</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>1.48355278622091</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.282116481706986</v>
+        <v>2.282116481706983</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2954097758056348</v>
@@ -1249,7 +1249,7 @@
         <v>0.05884735406759538</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2005037459026758</v>
+        <v>0.2005037459026755</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.084315004037565</v>
+        <v>5.852085242170317</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.633839156343347</v>
+        <v>3.492038945499445</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6954294894448981</v>
+        <v>-0.6914713444396512</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3038820147347259</v>
+        <v>0.5312811146500195</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.203048178172968</v>
+        <v>0.200191945412461</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1072075693484412</v>
+        <v>0.1046804665191916</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.02606308937187946</v>
+        <v>-0.02667401560885739</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.02379909649322969</v>
+        <v>0.04373369162338971</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.7880748090692</v>
+        <v>10.57262850738832</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.49487724043186</v>
+        <v>8.226921771973442</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.756790059097881</v>
+        <v>3.476988403428045</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.074641528280281</v>
+        <v>4.063290611171442</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3922191306965578</v>
+        <v>0.387148928615587</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2695594549401507</v>
+        <v>0.2622923776921084</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1556627295024718</v>
+        <v>0.1429371223152691</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3927101852534586</v>
+        <v>0.3939881950120784</v>
       </c>
     </row>
     <row r="25">
